--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Daten/Studium/Master EE/Masterprojekt/Git-Repository/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0158F-2971-0A42-804C-7F64A6CBA422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C34FBE-BF1F-7345-8827-26E92A500618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>year_min</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Human_Welfare</t>
+  </si>
+  <si>
+    <t>NRMSD_total_weighting</t>
   </si>
 </sst>
 </file>
@@ -382,12 +385,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -729,28 +735,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,8 +841,11 @@
       <c r="M2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +885,11 @@
       <c r="M3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,8 +929,11 @@
       <c r="M4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -946,7 +965,7 @@
         <v>75</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -954,8 +973,11 @@
       <c r="M5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -992,8 +1014,11 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1033,8 +1058,11 @@
       <c r="M7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1074,8 +1102,11 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1107,7 +1138,7 @@
         <v>38</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1115,8 +1146,11 @@
       <c r="M9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1156,8 +1190,11 @@
       <c r="M10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1226,7 @@
         <v>38</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1197,8 +1234,11 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -1238,8 +1278,11 @@
       <c r="M12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1271,7 +1314,7 @@
         <v>38</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1279,8 +1322,11 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1320,8 +1366,11 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1353,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1361,8 +1410,11 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1402,8 +1454,11 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
@@ -1440,8 +1495,11 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
@@ -1477,6 +1535,9 @@
       </c>
       <c r="M18" t="b">
         <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Daten/Studium/Master EE/Masterprojekt/Git-Repository/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C34FBE-BF1F-7345-8827-26E92A500618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841A68F9-86AF-1C47-9A1D-DE8EA0B5ED96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -738,7 +749,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,7 +853,8 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -886,7 +898,8 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <f t="shared" ref="N3:N4" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -930,7 +943,8 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1011,8 +1025,8 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6">
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1099,8 +1113,8 @@
       <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8">
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1143,8 +1157,8 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9">
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1231,8 +1245,8 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11">
+        <v>5</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1319,8 +1333,8 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13">
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1407,8 +1421,8 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15">
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841A68F9-86AF-1C47-9A1D-DE8EA0B5ED96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF03E667-E328-44ED-9CAA-0D6061F63B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -396,16 +396,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -749,26 +746,26 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -808,11 +805,11 @@
       <c r="M1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,7 +854,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,7 +899,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,7 +944,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1032,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1152,7 +1149,7 @@
         <v>38</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1164,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>38</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1252,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>38</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1340,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>38</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1428,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>75</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1513,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
@@ -1542,7 +1539,7 @@
         <v>75</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1568,13 +1565,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1688,37 +1685,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF03E667-E328-44ED-9CAA-0D6061F63B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC68D8B-A179-4DA9-9BD2-17F5F423751A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1017,13 +1017,13 @@
         <v>38</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>10</v>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1110,8 +1110,8 @@
       <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>20</v>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1149,13 +1149,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>20</v>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>5</v>
+      <c r="M11" t="b">
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1325,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>10</v>
+      <c r="M13" t="b">
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1413,13 +1413,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>20</v>
+      <c r="M15" t="b">
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC68D8B-A179-4DA9-9BD2-17F5F423751A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84E222-31A5-7C4D-BC2D-7A644027EEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -745,27 +745,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="8" max="8" width="43.5" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -809,7 +809,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1022,14 +1022,14 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6">
+        <v>1.6</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1242,14 +1242,14 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11">
+        <v>1.6</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1330,14 +1330,14 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13">
+        <v>1.6</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1418,14 +1418,14 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15">
+        <v>1.6</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
@@ -1565,13 +1565,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1685,37 +1685,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84E222-31A5-7C4D-BC2D-7A644027EEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D4C60-C01D-824B-820E-E0F7A69C805C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>year_min</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>NRMSD_total_weighting</t>
+  </si>
+  <si>
+    <t>period</t>
   </si>
 </sst>
 </file>
@@ -743,29 +746,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="8" max="8" width="43.5" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="30.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="43.5" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -776,40 +779,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -819,249 +825,267 @@
       <c r="C2">
         <v>2021</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
+      <c r="D2">
+        <f t="shared" ref="D2:D16" si="0">C2-B2</f>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="N2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="C3">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N4" si="0">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="C4">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>2019</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>1979</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1959</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1961</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>1962</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>1.6</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>1979</v>
+        <v>1960</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1070,484 +1094,435 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>1959</v>
+        <v>1990</v>
       </c>
       <c r="C8">
         <v>2021</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>86</v>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>1960</v>
+        <v>1991</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>86</v>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="C10">
         <v>2021</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B11">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
       <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1.6</v>
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>1981</v>
+        <v>1965</v>
       </c>
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>1982</v>
+        <v>1966</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
       <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1.6</v>
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="C14">
-        <v>2021</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>1966</v>
+        <v>1991</v>
       </c>
       <c r="C15">
         <v>2021</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1.6</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B16">
         <v>1961</v>
       </c>
       <c r="C16">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H16" t="s">
         <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
         <v>75</v>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17">
-        <v>1991</v>
-      </c>
-      <c r="C17">
-        <v>2021</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18">
-        <v>1961</v>
-      </c>
-      <c r="C18">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
     </row>
@@ -1559,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A74A4EA-9186-5D4F-A4D5-7A6D90A60110}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1571,7 +1546,7 @@
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1603,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1644,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1685,37 +1660,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1970</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1970</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D4C60-C01D-824B-820E-E0F7A69C805C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC761E3-7BE2-40CE-8B9D-D6ABE91394E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -749,26 +749,28 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="43.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="8.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="16.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.42578125" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="43.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -815,7 +817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -953,10 +955,10 @@
         <v>0.1</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1001,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1049,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1097,10 +1099,10 @@
         <v>0.15</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1145,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1193,10 +1195,10 @@
         <v>0.25</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
@@ -1241,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -1289,10 +1291,10 @@
         <v>0.2</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1337,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1385,10 +1387,10 @@
         <v>0.1</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -1478,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1540,13 +1542,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1660,10 +1662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1751,28 +1753,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC761E3-7BE2-40CE-8B9D-D6ABE91394E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A79F2-4375-4BF4-8D46-B0168B60708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>0.1</v>
       </c>
       <c r="O4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>0.15</v>
       </c>
       <c r="O7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>0.25</v>
       </c>
       <c r="O9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>0.2</v>
       </c>
       <c r="O11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>0.1</v>
       </c>
       <c r="O13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A79F2-4375-4BF4-8D46-B0168B60708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35575C-B237-41EA-93A3-9D3802630B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35575C-B237-41EA-93A3-9D3802630B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB32778-015F-4302-B2D2-1E500C1EFDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>0.1</v>
       </c>
       <c r="O4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/empirical_settings.xlsx
+++ b/empirical_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB32778-015F-4302-B2D2-1E500C1EFDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC711A6-5066-4C01-A714-71E9EB851C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="A16" sqref="A2:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -763,9 +763,9 @@
     <col min="8" max="8" width="30.42578125" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="9" max="9" width="43.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="30.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
   </cols>
